--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_397__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_397__Reeval_LHS_Modell_1.3.xlsx
@@ -5882,7 +5882,7 @@
                   <c:v>68.90583801269531</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.64859008789062</c:v>
+                  <c:v>57.64858245849609</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>73.94298553466797</c:v>
@@ -5891,13 +5891,13 @@
                   <c:v>65.57578277587891</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.09878540039062</c:v>
+                  <c:v>60.09877777099609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.42837524414062</c:v>
+                  <c:v>68.42836761474609</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.17044830322266</c:v>
+                  <c:v>62.17044067382812</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>67.55254364013672</c:v>
@@ -5909,7 +5909,7 @@
                   <c:v>72.45309448242188</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74.05987548828125</c:v>
+                  <c:v>74.05986785888672</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>72.43689727783203</c:v>
@@ -5930,7 +5930,7 @@
                   <c:v>63.96530151367188</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>73.80794525146484</c:v>
+                  <c:v>73.80793762207031</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>65.60675048828125</c:v>
@@ -5954,7 +5954,7 @@
                   <c:v>72.22489929199219</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>70.17338562011719</c:v>
+                  <c:v>70.17337799072266</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>62.94298553466797</c:v>
@@ -5966,7 +5966,7 @@
                   <c:v>68.36721801757812</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>72.79700469970703</c:v>
+                  <c:v>72.7969970703125</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>66.32407379150391</c:v>
@@ -5978,7 +5978,7 @@
                   <c:v>53.55147552490234</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>61.97660064697266</c:v>
+                  <c:v>61.97659301757812</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>66.88776397705078</c:v>
@@ -5996,7 +5996,7 @@
                   <c:v>68.039794921875</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>71.29325866699219</c:v>
+                  <c:v>71.29325103759766</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>50.92153930664062</c:v>
@@ -6023,19 +6023,19 @@
                   <c:v>67.88925170898438</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>75.1552734375</c:v>
+                  <c:v>75.15526580810547</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>69.42108917236328</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>62.14794158935547</c:v>
+                  <c:v>62.14794921875</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>74.04440307617188</c:v>
+                  <c:v>74.04439544677734</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>69.18421936035156</c:v>
+                  <c:v>69.18422698974609</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>65.03199005126953</c:v>
@@ -6044,7 +6044,7 @@
                   <c:v>72.25344848632812</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>65.29386138916016</c:v>
+                  <c:v>65.29385375976562</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>46.34614562988281</c:v>
@@ -6071,16 +6071,16 @@
                   <c:v>72.07855987548828</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>59.47340393066406</c:v>
+                  <c:v>59.47341156005859</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>63.95369720458984</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>71.22021484375</c:v>
+                  <c:v>71.22020721435547</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>64.72066497802734</c:v>
+                  <c:v>64.72065734863281</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>59.13462066650391</c:v>
@@ -6095,7 +6095,7 @@
                   <c:v>69.43904113769531</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>60.0072021484375</c:v>
+                  <c:v>60.00720977783203</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>66.65880584716797</c:v>
@@ -6119,7 +6119,7 @@
                   <c:v>63.24249267578125</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>66.48763275146484</c:v>
+                  <c:v>66.48762512207031</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>70.71247100830078</c:v>
@@ -6143,7 +6143,7 @@
                   <c:v>68.21959686279297</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>61.20341491699219</c:v>
+                  <c:v>61.20340728759766</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>64.35173797607422</c:v>
@@ -6161,7 +6161,7 @@
                   <c:v>67.60151672363281</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>66.26164245605469</c:v>
+                  <c:v>66.26163482666016</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>69.85496520996094</c:v>
@@ -6955,7 +6955,7 @@
         <v>92.8593</v>
       </c>
       <c r="F5">
-        <v>57.64859008789062</v>
+        <v>57.64858245849609</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -7051,7 +7051,7 @@
         <v>70.6229</v>
       </c>
       <c r="F8">
-        <v>60.09878540039062</v>
+        <v>60.09877777099609</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7071,7 +7071,7 @@
         <v>73.1687</v>
       </c>
       <c r="F9">
-        <v>68.42837524414062</v>
+        <v>68.42836761474609</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>57.1515</v>
       </c>
       <c r="F10">
-        <v>62.17044830322266</v>
+        <v>62.17044067382812</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>86.3768</v>
       </c>
       <c r="F14">
-        <v>74.05987548828125</v>
+        <v>74.05986785888672</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>84.6895</v>
       </c>
       <c r="F21">
-        <v>73.80794525146484</v>
+        <v>73.80793762207031</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>75.6429</v>
       </c>
       <c r="F29">
-        <v>70.17338562011719</v>
+        <v>70.17337799072266</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>55.7118</v>
       </c>
       <c r="F33">
-        <v>72.79700469970703</v>
+        <v>72.7969970703125</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>90.173</v>
       </c>
       <c r="F37">
-        <v>61.97660064697266</v>
+        <v>61.97659301757812</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>79.9358</v>
       </c>
       <c r="F43">
-        <v>71.29325866699219</v>
+        <v>71.29325103759766</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>68.0436</v>
       </c>
       <c r="F52">
-        <v>75.1552734375</v>
+        <v>75.15526580810547</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>44.0149</v>
       </c>
       <c r="F54">
-        <v>62.14794158935547</v>
+        <v>62.14794921875</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>52.6674</v>
       </c>
       <c r="F55">
-        <v>74.04440307617188</v>
+        <v>74.04439544677734</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>50.2989</v>
       </c>
       <c r="F56">
-        <v>69.18421936035156</v>
+        <v>69.18422698974609</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>54.8399</v>
       </c>
       <c r="F59">
-        <v>65.29386138916016</v>
+        <v>65.29385375976562</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>72.51430000000001</v>
       </c>
       <c r="F68">
-        <v>59.47340393066406</v>
+        <v>59.47341156005859</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>51.1284</v>
       </c>
       <c r="F70">
-        <v>71.22021484375</v>
+        <v>71.22020721435547</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>48.8963</v>
       </c>
       <c r="F71">
-        <v>64.72066497802734</v>
+        <v>64.72065734863281</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>64.7649</v>
       </c>
       <c r="F76">
-        <v>60.0072021484375</v>
+        <v>60.00720977783203</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>77.9639</v>
       </c>
       <c r="F84">
-        <v>66.48763275146484</v>
+        <v>66.48762512207031</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>78.43470000000001</v>
       </c>
       <c r="F92">
-        <v>61.20341491699219</v>
+        <v>61.20340728759766</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>69.08</v>
       </c>
       <c r="F98">
-        <v>66.26164245605469</v>
+        <v>66.26163482666016</v>
       </c>
     </row>
     <row r="99" spans="1:6">
